--- a/Attach/FactoryClient/FactoryClient/bin/Release/金額報表.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/金額報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>小計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,24 +53,65 @@
   </si>
   <si>
     <t>台灣小吃部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元</t>
+  </si>
+  <si>
+    <t>45元</t>
+  </si>
+  <si>
+    <t>50元</t>
+  </si>
+  <si>
+    <t>55元</t>
+  </si>
+  <si>
+    <t>60元</t>
+  </si>
+  <si>
+    <t>65元</t>
+  </si>
+  <si>
+    <t>70元</t>
+  </si>
+  <si>
+    <t>75元</t>
+  </si>
+  <si>
+    <t>80元</t>
+  </si>
+  <si>
+    <t>85元</t>
+  </si>
+  <si>
+    <t>90元</t>
+  </si>
+  <si>
+    <t>95元</t>
+  </si>
+  <si>
+    <t>100元</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -406,19 +447,19 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="6" max="6" width="1.875" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="6" max="6" width="1.8984375" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.75" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="1.69921875" customWidth="1"/>
+    <col min="11" max="11" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -438,12 +479,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2">
-        <v>25405</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>201</v>
@@ -455,15 +496,15 @@
         <v>301</v>
       </c>
       <c r="H2">
-        <v>10130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3">
-        <v>9150</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>D2+1</f>
@@ -484,37 +525,37 @@
       </c>
       <c r="K3">
         <f>B22+E22+H22+B24</f>
-        <v>352165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4">
-        <v>15445</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D6" si="1">D3+1</f>
         <v>203</v>
       </c>
       <c r="E4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="H4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5">
-        <v>18785</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -528,7 +569,7 @@
         <v>304</v>
       </c>
       <c r="H5">
-        <v>9415</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -537,19 +578,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6">
-        <v>19060</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="E6">
-        <v>6325</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -562,21 +603,21 @@
         <v>6</v>
       </c>
       <c r="K6" s="1">
-        <v>43435.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43521.333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7">
-        <v>14245</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>206</v>
       </c>
       <c r="E7">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>306</v>
@@ -588,15 +629,15 @@
         <v>7</v>
       </c>
       <c r="K7" s="1">
-        <v>43509.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43521.666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8">
-        <v>22455</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -611,18 +652,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9">
-        <v>15460</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>208</v>
       </c>
       <c r="E9">
-        <v>13120</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>308</v>
@@ -631,12 +672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -651,18 +692,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11">
-        <v>6195</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>210</v>
       </c>
       <c r="E11">
-        <v>6065</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>310</v>
@@ -670,19 +711,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12">
-        <v>6585</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>211</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>311</v>
@@ -690,8 +737,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>112</v>
       </c>
@@ -702,7 +755,7 @@
         <v>212</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>312</v>
@@ -710,13 +763,19 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>113</v>
       </c>
       <c r="B14">
-        <v>29345</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>213</v>
@@ -728,15 +787,21 @@
         <v>313</v>
       </c>
       <c r="H14">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>114</v>
       </c>
       <c r="B15">
-        <v>6980</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>214</v>
@@ -750,13 +815,19 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16">
-        <v>7850</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>215</v>
@@ -770,19 +841,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17">
-        <v>23745</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>216</v>
       </c>
       <c r="E17">
-        <v>4060</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>316</v>
@@ -790,13 +867,19 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18">
-        <v>21660</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>217</v>
@@ -810,13 +893,19 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>118</v>
       </c>
       <c r="B19">
-        <v>13930</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>218</v>
@@ -828,15 +917,21 @@
         <v>318</v>
       </c>
       <c r="H19">
-        <v>9910</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>119</v>
       </c>
       <c r="B20">
-        <v>20640</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>219</v>
@@ -850,13 +945,19 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -870,36 +971,62 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>288735</v>
+        <v>260</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
       </c>
       <c r="E22">
         <f>SUM(E2:E21)</f>
-        <v>31120</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="H22">
         <f>SUM(H2:H21)</f>
-        <v>30880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <v>1430</v>
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
